--- a/data/hotels_by_city/Houston/Houston_shard_487.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_487.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d1222237-Reviews-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Motel-6-Baytown-Garth-Rd.h8756.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,846 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r583314932-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>1222237</t>
+  </si>
+  <si>
+    <t>583314932</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Motel 6 baytown</t>
+  </si>
+  <si>
+    <t>I stay at motel 6 baytown garth road everytime come in town .they have clean rooms , clean facilities , price is decent . Staff were helpful during the stay enjoyed a lot , i look forward to coming and staying at motel 6 again</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r583181242-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>583181242</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Nice 👍🏼 </t>
+  </si>
+  <si>
+    <t>Motel 6 went above and beyond with this remodel.  Room was huge, sitting area, mini fridge, microwave, bathroom area is separate - heck I might just move in!  Clean, comfortable, friendly, quiet, safe and convenient.  This location is literally right off the freeway near restaurants, gas, shopping - couldn’t go wrong!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r570865482-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>570865482</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>My wife &amp; I enjoyed our visit to Baytown since our accommodations were very good! We had a few issues upon arrival &amp; added an extra day to our stay at Motel 6 (Garth Rd location). Our guest service individual was Darrell Kilcrease who demonstrated outstanding problem solving skills, professionalism and tremendous customer service! I’d recommend this motel especially if you’re traveling with pets.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r380939374-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>380939374</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Extremely rude manager/mold in rooms/very slow WiFi</t>
+  </si>
+  <si>
+    <t>From what I gathered through pictures and reviews, this Motel 6 used to be La Quinta. Not sure how long ago that was but it doesn't matter because you should trust the pictures that have been uploaded from other reviewers. Especially the ones that show spiders in the corners of walls, a great deal of space at the bottom of your room door, the dingy looking carpet that majority of the rooms still have since La Quinta, the mold on the walls and the dusty AC units. I regret not taking pictures of my own during my 3 nights stay from May 31st to June 3rd as proof. My list of problems during my short stay includes; first non-smoking room we were assigned reeked of cigarette smoke and had the old La Quinta dingy carpet (moved immediately). The second non-smoking room we were assigned had mold on the bathroom walls, several flies roaming the room, a few unidentified insects, water damaged floors and floor trimmings, water bubbles formed between the drywall and layers of paint, shower tiles seemed as if a toddler was hired for the job. Our door had to be slammed so hard that our window shook to ensure that it was properly closed. Then, the battery to our room key reader died so the front desk had to physically come to our door with a machine to open it, every time we left. The key reader was...From what I gathered through pictures and reviews, this Motel 6 used to be La Quinta. Not sure how long ago that was but it doesn't matter because you should trust the pictures that have been uploaded from other reviewers. Especially the ones that show spiders in the corners of walls, a great deal of space at the bottom of your room door, the dingy looking carpet that majority of the rooms still have since La Quinta, the mold on the walls and the dusty AC units. I regret not taking pictures of my own during my 3 nights stay from May 31st to June 3rd as proof. My list of problems during my short stay includes; first non-smoking room we were assigned reeked of cigarette smoke and had the old La Quinta dingy carpet (moved immediately). The second non-smoking room we were assigned had mold on the bathroom walls, several flies roaming the room, a few unidentified insects, water damaged floors and floor trimmings, water bubbles formed between the drywall and layers of paint, shower tiles seemed as if a toddler was hired for the job. Our door had to be slammed so hard that our window shook to ensure that it was properly closed. Then, the battery to our room key reader died so the front desk had to physically come to our door with a machine to open it, every time we left. The key reader was not fixed until check-out. Our sink did not turn on at all during our first night. We checked-in about noon and took a long nap after our 8 hour flight. We did not notice the faucet until about 6pm. Called to the front desk and told us we would have to wait until the next day for maintenance. So we spent the evening washing our hands and brushing our teeth in the TUB!! On our check-out day, the manager was extremely rude and denied my request for a check out at 12pm due to me not being able to have transportation until then. Her response was "Check out is at 11am sharp so that our housekeepers can get in there and clean the room so it's ready for check in at 3pm." She said it with such attitude and disrespect, without making eye contact with me. I said "So I'm supposed to sit out on the curb for an hour?" Her response was, "YEP.".................... YEP! To make matters worse, I requested her name for my review and was told by other staff members they were "not authorized" to give me her name. I waited 10-15mims for the manager to get off the phone, from her office, while my cab driver continuously honked at me from outside. After many attempts to get her to AT LEAST give me a time that I could call her back or give me 15 seconds out of her phone call, she stayed in her office and let her front desk staff make excuses. When I asked what the manager's hours were. I was told, "I don't know, she makes her own schedule." WHAT?! This female manager is the worse I have ever dealt with at any hotel. She needs to be either demoted or given a mandatory Guest Services  course. This location is in dire need of a major overhaul. Oh, and another thing, I left the room at 11:30am. Not one housekeeper in sight. So much for 11am SHARP.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>From what I gathered through pictures and reviews, this Motel 6 used to be La Quinta. Not sure how long ago that was but it doesn't matter because you should trust the pictures that have been uploaded from other reviewers. Especially the ones that show spiders in the corners of walls, a great deal of space at the bottom of your room door, the dingy looking carpet that majority of the rooms still have since La Quinta, the mold on the walls and the dusty AC units. I regret not taking pictures of my own during my 3 nights stay from May 31st to June 3rd as proof. My list of problems during my short stay includes; first non-smoking room we were assigned reeked of cigarette smoke and had the old La Quinta dingy carpet (moved immediately). The second non-smoking room we were assigned had mold on the bathroom walls, several flies roaming the room, a few unidentified insects, water damaged floors and floor trimmings, water bubbles formed between the drywall and layers of paint, shower tiles seemed as if a toddler was hired for the job. Our door had to be slammed so hard that our window shook to ensure that it was properly closed. Then, the battery to our room key reader died so the front desk had to physically come to our door with a machine to open it, every time we left. The key reader was...From what I gathered through pictures and reviews, this Motel 6 used to be La Quinta. Not sure how long ago that was but it doesn't matter because you should trust the pictures that have been uploaded from other reviewers. Especially the ones that show spiders in the corners of walls, a great deal of space at the bottom of your room door, the dingy looking carpet that majority of the rooms still have since La Quinta, the mold on the walls and the dusty AC units. I regret not taking pictures of my own during my 3 nights stay from May 31st to June 3rd as proof. My list of problems during my short stay includes; first non-smoking room we were assigned reeked of cigarette smoke and had the old La Quinta dingy carpet (moved immediately). The second non-smoking room we were assigned had mold on the bathroom walls, several flies roaming the room, a few unidentified insects, water damaged floors and floor trimmings, water bubbles formed between the drywall and layers of paint, shower tiles seemed as if a toddler was hired for the job. Our door had to be slammed so hard that our window shook to ensure that it was properly closed. Then, the battery to our room key reader died so the front desk had to physically come to our door with a machine to open it, every time we left. The key reader was not fixed until check-out. Our sink did not turn on at all during our first night. We checked-in about noon and took a long nap after our 8 hour flight. We did not notice the faucet until about 6pm. Called to the front desk and told us we would have to wait until the next day for maintenance. So we spent the evening washing our hands and brushing our teeth in the TUB!! On our check-out day, the manager was extremely rude and denied my request for a check out at 12pm due to me not being able to have transportation until then. Her response was "Check out is at 11am sharp so that our housekeepers can get in there and clean the room so it's ready for check in at 3pm." She said it with such attitude and disrespect, without making eye contact with me. I said "So I'm supposed to sit out on the curb for an hour?" Her response was, "YEP.".................... YEP! To make matters worse, I requested her name for my review and was told by other staff members they were "not authorized" to give me her name. I waited 10-15mims for the manager to get off the phone, from her office, while my cab driver continuously honked at me from outside. After many attempts to get her to AT LEAST give me a time that I could call her back or give me 15 seconds out of her phone call, she stayed in her office and let her front desk staff make excuses. When I asked what the manager's hours were. I was told, "I don't know, she makes her own schedule." WHAT?! This female manager is the worse I have ever dealt with at any hotel. She needs to be either demoted or given a mandatory Guest Services  course. This location is in dire need of a major overhaul. Oh, and another thing, I left the room at 11:30am. Not one housekeeper in sight. So much for 11am SHARP.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r363072533-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>363072533</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>this was a very nice stay , clean rooms , friendly employees , we were coming from a terrible motel 6 and they were able to get us in right away, very pleasent and friendly and very helpful to us, made sure our stay was wonderful</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r344935924-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>344935924</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here ever! My room smells like smoke even though it's non smoking roof is collapsing carpet is filthy not vac</t>
+  </si>
+  <si>
+    <t>This place is a dump! Rooms are filthy. They are not taken care of see pictures! The rooms are filthy smell like smoke! I had to change my first room and only stayed here because I had driven 771 miles I put plastic bags on my feet to take a shower! I am so upset I'm calling corporate as soon as I'm done with this review! The pictures say it all!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experienced Team Member at Motel 6 Baytown - Garth Rd, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>This place is a dump! Rooms are filthy. They are not taken care of see pictures! The rooms are filthy smell like smoke! I had to change my first room and only stayed here because I had driven 771 miles I put plastic bags on my feet to take a shower! I am so upset I'm calling corporate as soon as I'm done with this review! The pictures say it all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r300321511-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>300321511</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Horrible stay, scary drug and ladies of the night transactions happening.</t>
+  </si>
+  <si>
+    <t>Where do I begin...my son wanted to go to the pool and my husband, teen daughter daughter and I went along. We saw a girl pimping out another girl, saw some drug transactions, place was filthy. Trash cans in the back of hotel were overflowing and were there when we got there and when we left. Just horrible overall. Will not stay there again.  Only good thing was the location. Pretty much right off the highway I-10.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r268324773-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>268324773</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Don't Waste Your Money</t>
+  </si>
+  <si>
+    <t>We booked this for a weekend in Baytown and for the price we paid I would have expected a better motel. The room smelled musty and it never went away. The bathroom area was missing the main mirror on the wall. The room where the bath tub was had small black hairs on the floors and on the walls of the shower. All the outside trash cans were overflowing with trash and the long term guest that were staying here were not friendly looking at all. Also on our last morning when coming out to the truck to load up the wooden privacy fence was pushed or ran through and there was beer cans all around that area and near our truck. When we complained to the front desk upon check out they said there was nothing they could do that after all we were staying at a Motel 6. The one positive was that we were able to stay towards the back of the motel so that you didn't hear the interstate noise, but that was the only positive!! I wouldn't recommend anyone to stay here. For the price we paid I would expect a better place and better front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>We booked this for a weekend in Baytown and for the price we paid I would have expected a better motel. The room smelled musty and it never went away. The bathroom area was missing the main mirror on the wall. The room where the bath tub was had small black hairs on the floors and on the walls of the shower. All the outside trash cans were overflowing with trash and the long term guest that were staying here were not friendly looking at all. Also on our last morning when coming out to the truck to load up the wooden privacy fence was pushed or ran through and there was beer cans all around that area and near our truck. When we complained to the front desk upon check out they said there was nothing they could do that after all we were staying at a Motel 6. The one positive was that we were able to stay towards the back of the motel so that you didn't hear the interstate noise, but that was the only positive!! I wouldn't recommend anyone to stay here. For the price we paid I would expect a better place and better front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r254118535-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>254118535</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Not so wonderful experience....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is by far cry from what it is listed as online.  There are no amenities in any of the rooms as stated and have to pay for Wi-Fi. They made reservations for us on the reservation line including collecting credit card information and name and lost the reservations and now our credit card is just floating around and no one knows how this happend. We were also quoted on price and got another.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r236642992-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>236642992</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Cheap, convenient, NOISY!!!</t>
+  </si>
+  <si>
+    <t>We were in search of a hotel for a night while traveling and settled upon this motel due to price and location. We booked the room through Orbitz and upon arrival were charged an additional $15 over the amount paid through Orbitz. We contested the additional charge with Kabrina at the front desk and she advised that we contact Orbitz and have them fax the confirmation directly to her to confirm the price. After finally connecting with Orbitz and having the documentation faxed, Kabrina contacted the manager and promptly resolved the issue. Kudos Kabrina!  The rooms were clean, air conditioner worked well, and the beds were fairly comfortable.  However the noise from the Interstate was almost unbearable.  It sounded like Mack trucks were driving through the room ALL night!  Would only recommend if you were staying in one of the rooms furthest away from the Interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We were in search of a hotel for a night while traveling and settled upon this motel due to price and location. We booked the room through Orbitz and upon arrival were charged an additional $15 over the amount paid through Orbitz. We contested the additional charge with Kabrina at the front desk and she advised that we contact Orbitz and have them fax the confirmation directly to her to confirm the price. After finally connecting with Orbitz and having the documentation faxed, Kabrina contacted the manager and promptly resolved the issue. Kudos Kabrina!  The rooms were clean, air conditioner worked well, and the beds were fairly comfortable.  However the noise from the Interstate was almost unbearable.  It sounded like Mack trucks were driving through the room ALL night!  Would only recommend if you were staying in one of the rooms furthest away from the Interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r236284420-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>236284420</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>Worst stay ever!!!</t>
+  </si>
+  <si>
+    <t>Staff is very rude and unwilling to make accommodations requested. 90% of staff lives on site  so very drama filled atmosphere. We travel 9 months out of the year and this is absolutely the worse stay we have ever encountered. Would highly recommend finding some other place to stay even if it is a few dollars more per night/week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r215054815-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>215054815</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Double charged and will not refund</t>
+  </si>
+  <si>
+    <t>I had a confirmed online reservation. At check in I was told my reservation was canceled, because my credit card had been denied. I was still able to get a room, albeit at a higher price. The same (denied?) credit card was accepted for payment. When I returned home and viewed my credit card statement I found that I had been charged both times for the stay. Motel 6 and the franchisee both refuse to reimburse me for the overcharge.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r179654205-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>179654205</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Damp and Dirty</t>
+  </si>
+  <si>
+    <t>1. We drove straight through for 991 miles. Wanted hot shower/sleep
+2. Always stay La Quinta w/o issues ( until now)
+3. It was a handicap room so no parking close as we aren't handicapped. ( no sticker)
+So disappointed with this past weeks stay. We made reservations online and in the special request we noted traveling with pet. We were told to do so via a call to the hotel (booked online for corporate discount). 
+My husband got me calmed down and we dealt with the room due to being very tired and just worn out. Pretend to be camping it helps. 
+The room smelled very damp and musty. It is a very dark room, poor lighting, spiders with webs, dust on headboard and looked liked someone took a cup of coffee and threw it on the inside door, it was dried there and sticky. Carpet seemed unclean. Had it not been for the bleach smell on the sheets it would have been unbearable. Not to mention that the coffee pot was missing parts. I mean come on it is a very basic and cheap item. Get a new one. 
+DIRTY DIRTY!! I also feel as though they discriminate against pets (which they say they are pet friendly). I feel as though they put us in that terrible room due to a pet. I bring a kennel with me and when my dog is not being supervised (including at...1. We drove straight through for 991 miles. Wanted hot shower/sleep2. Always stay La Quinta w/o issues ( until now)3. It was a handicap room so no parking close as we aren't handicapped. ( no sticker)So disappointed with this past weeks stay. We made reservations online and in the special request we noted traveling with pet. We were told to do so via a call to the hotel (booked online for corporate discount). My husband got me calmed down and we dealt with the room due to being very tired and just worn out. Pretend to be camping it helps. The room smelled very damp and musty. It is a very dark room, poor lighting, spiders with webs, dust on headboard and looked liked someone took a cup of coffee and threw it on the inside door, it was dried there and sticky. Carpet seemed unclean. Had it not been for the bleach smell on the sheets it would have been unbearable. Not to mention that the coffee pot was missing parts. I mean come on it is a very basic and cheap item. Get a new one. DIRTY DIRTY!! I also feel as though they discriminate against pets (which they say they are pet friendly). I feel as though they put us in that terrible room due to a pet. I bring a kennel with me and when my dog is not being supervised (including at night for sleeping) he is in the kennel. I do not leave the dog unattended (not even in kennel) when leaving the hotel. I will never stay at this location again and I will certainly not recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>1. We drove straight through for 991 miles. Wanted hot shower/sleep
+2. Always stay La Quinta w/o issues ( until now)
+3. It was a handicap room so no parking close as we aren't handicapped. ( no sticker)
+So disappointed with this past weeks stay. We made reservations online and in the special request we noted traveling with pet. We were told to do so via a call to the hotel (booked online for corporate discount). 
+My husband got me calmed down and we dealt with the room due to being very tired and just worn out. Pretend to be camping it helps. 
+The room smelled very damp and musty. It is a very dark room, poor lighting, spiders with webs, dust on headboard and looked liked someone took a cup of coffee and threw it on the inside door, it was dried there and sticky. Carpet seemed unclean. Had it not been for the bleach smell on the sheets it would have been unbearable. Not to mention that the coffee pot was missing parts. I mean come on it is a very basic and cheap item. Get a new one. 
+DIRTY DIRTY!! I also feel as though they discriminate against pets (which they say they are pet friendly). I feel as though they put us in that terrible room due to a pet. I bring a kennel with me and when my dog is not being supervised (including at...1. We drove straight through for 991 miles. Wanted hot shower/sleep2. Always stay La Quinta w/o issues ( until now)3. It was a handicap room so no parking close as we aren't handicapped. ( no sticker)So disappointed with this past weeks stay. We made reservations online and in the special request we noted traveling with pet. We were told to do so via a call to the hotel (booked online for corporate discount). My husband got me calmed down and we dealt with the room due to being very tired and just worn out. Pretend to be camping it helps. The room smelled very damp and musty. It is a very dark room, poor lighting, spiders with webs, dust on headboard and looked liked someone took a cup of coffee and threw it on the inside door, it was dried there and sticky. Carpet seemed unclean. Had it not been for the bleach smell on the sheets it would have been unbearable. Not to mention that the coffee pot was missing parts. I mean come on it is a very basic and cheap item. Get a new one. DIRTY DIRTY!! I also feel as though they discriminate against pets (which they say they are pet friendly). I feel as though they put us in that terrible room due to a pet. I bring a kennel with me and when my dog is not being supervised (including at night for sleeping) he is in the kennel. I do not leave the dog unattended (not even in kennel) when leaving the hotel. I will never stay at this location again and I will certainly not recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r177848577-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>177848577</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>Convenient location, horrible smell</t>
+  </si>
+  <si>
+    <t>We checked in late for just a quick night on the way to Austin.  The price was reasonable for an unscheduled stop over, but was not really worth the price paid.  We checked into what clearly used to be a smoking room.  The room smelled horrible, but after about 10 minutes we decided that it wasn't really worth complaining.  We just went to bed right away.  There was breakfast in the morning, it wasn't anything interesting, but did provide some toast and fruit for the morning drive.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r168647865-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>168647865</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Decent for a very reasonable price</t>
+  </si>
+  <si>
+    <t>We arrived to find dirty surfaces in our room, bedspread, sink, toilet had hair and debris.  When I pulled back the sheet it had debris at the foot of the bed.  We notified the manager and they immediately gave us another room which was spotlessly clean.  The bed was VERY comfortable with lots of fluffy pillows.  The shower was good.  They were a little stingy with the washcloths (only two given per day for two occupants).  The room was of a decent size and the air conditioner gave out deliciously cold air.  When we checked in they told us breakfast was until 9:30 (already a stretch when you are wanting to sleep in) then on the second day we came down at 9:14 and were told breakfast was over.  I mentioned that we were told it was until 9:30 and she said well, it has changed.  Nice to be informed, right?  We would have tried a little harder to be down before 9:00.  The breakfast was pretty good (yogurt, cereal, juice, coffee, waffles, oatmeal) you just had better get up early to get it.  Some people said that theft was an issue but we did not have a problem and did not feel unsafe.  All said, we were looking for a decent place on a tight budget and were not disappointed. We would stay here again since management tried very hard to please.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We arrived to find dirty surfaces in our room, bedspread, sink, toilet had hair and debris.  When I pulled back the sheet it had debris at the foot of the bed.  We notified the manager and they immediately gave us another room which was spotlessly clean.  The bed was VERY comfortable with lots of fluffy pillows.  The shower was good.  They were a little stingy with the washcloths (only two given per day for two occupants).  The room was of a decent size and the air conditioner gave out deliciously cold air.  When we checked in they told us breakfast was until 9:30 (already a stretch when you are wanting to sleep in) then on the second day we came down at 9:14 and were told breakfast was over.  I mentioned that we were told it was until 9:30 and she said well, it has changed.  Nice to be informed, right?  We would have tried a little harder to be down before 9:00.  The breakfast was pretty good (yogurt, cereal, juice, coffee, waffles, oatmeal) you just had better get up early to get it.  Some people said that theft was an issue but we did not have a problem and did not feel unsafe.  All said, we were looking for a decent place on a tight budget and were not disappointed. We would stay here again since management tried very hard to please.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r165739348-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>165739348</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Average La Quinta</t>
+  </si>
+  <si>
+    <t>I can say I have stayed at better and worse hotels. The main thing is that the room was clean and we were just staying one night prior to going on a cruise in Galveston. There was a worn spot by the entry door of the room which was more cosmetic then necessity. There was not enough hot water in the evening when I took a shower before bed, but the next morning was fine. Old Mall was across interstate and many eating establishments nearby. WiFi was free as in all La Quinta hotels, but was hit or miss. Front desk was very friendly and greeted you each time you entered the area if they were not busy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I can say I have stayed at better and worse hotels. The main thing is that the room was clean and we were just staying one night prior to going on a cruise in Galveston. There was a worn spot by the entry door of the room which was more cosmetic then necessity. There was not enough hot water in the evening when I took a shower before bed, but the next morning was fine. Old Mall was across interstate and many eating establishments nearby. WiFi was free as in all La Quinta hotels, but was hit or miss. Front desk was very friendly and greeted you each time you entered the area if they were not busy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r165658755-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>165658755</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r165500532-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>165500532</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>This hotel is absolutely disgustingly filthy!</t>
+  </si>
+  <si>
+    <t>This non smoking hotel reeks of cigarettes. I step off the elevator onto our floor and the hallway walls had random stains of who knows what all over, and not just in one area the stains run down both sides of the hallway( i took a picture to send to the company i was so disgusted) The carpet to our room was incredibly filthy throughout the hallway. The carpet in our room was badly stained, room smells of cigarettes, and there were stains all over the linens. This is my second night in a la Quinta and from both my experiences I will never waste my hard earned money in this dump again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This non smoking hotel reeks of cigarettes. I step off the elevator onto our floor and the hallway walls had random stains of who knows what all over, and not just in one area the stains run down both sides of the hallway( i took a picture to send to the company i was so disgusted) The carpet to our room was incredibly filthy throughout the hallway. The carpet in our room was badly stained, room smells of cigarettes, and there were stains all over the linens. This is my second night in a la Quinta and from both my experiences I will never waste my hard earned money in this dump again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r162092952-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>162092952</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Great Price</t>
+  </si>
+  <si>
+    <t>We stayed here because hotels in galveston were booked and only the higher price hotels were available. We went during memorial weekend.  I would recommend this hotel because of cleanliness and price.  If going to galveston it is about 45 minutes to stay at this one but It is totally worth it!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r159694555-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>159694555</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>One of the best LaQuintas ever!</t>
+  </si>
+  <si>
+    <t>This hotel is clean, centrally located, easy access to highway, and surprisingly quiet despite how close to the highway it sits. The staff is very polite and accomidating. This was a very pleasant experiencw , and highly recommend this hotel for anyone traveling to Baytown.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r158415855-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>158415855</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r153738593-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>153738593</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>Stinky :(</t>
+  </si>
+  <si>
+    <t>The positives, the staff was very pleasant. When we complained at check in that our room smelled like an ash tray the front desk apologized and moved us to another room, that smelled like an ash tray but somewhat removed. The property is really old. The pool has brown stains at the bottom that are not pictured in the photo on the La Quinta website, which really is bothersome since I feel like our expectations were not accurate upon arrival. There is no fitness center. The sheets and bed seemed clean enough, but the tub had some rust stains. The entire outdoor area of the property smells like the restaurant next door, onion rings! Not what I want to experience while trying to escape the smoking smell in the room. This hotel is not what I would expect from a La Quinta property.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>The positives, the staff was very pleasant. When we complained at check in that our room smelled like an ash tray the front desk apologized and moved us to another room, that smelled like an ash tray but somewhat removed. The property is really old. The pool has brown stains at the bottom that are not pictured in the photo on the La Quinta website, which really is bothersome since I feel like our expectations were not accurate upon arrival. There is no fitness center. The sheets and bed seemed clean enough, but the tub had some rust stains. The entire outdoor area of the property smells like the restaurant next door, onion rings! Not what I want to experience while trying to escape the smoking smell in the room. This hotel is not what I would expect from a La Quinta property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r153567926-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>153567926</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great price. Just down the street from LaQuinta east but 25% less. Older  facility, but nice. No elevator!!! Easy access, but you have to go west to next exit to get back to Garth Rd where all the  restaurants are. Wifi signal was weak in my room. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r153035446-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>153035446</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r150021948-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>150021948</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r148695447-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>148695447</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r148691449-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>148691449</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Great place to stay. The rooms were clean with nice comfy beds. We were able to bring pets. I was afraid the room would smell like animal but it was nice and fresh. Great grassy area and large bar-be-que pit by the pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r147121969-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>147121969</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>Great Motel for the Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay for the money we paid.  Booked on Hotels.com for $55.  Property was well kept, breakfast (waffles) were a hit with the kids.  Rooms were a little cramped for 4 people but overall a great place.  I would stay here again.     The staff was very friendly as well.                                                                                                                                                              </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r146142224-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>146142224</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t>This is my go-to hotel when visiting Baytown.  Staff is friendly, rooms are clean, price is fantastic...and they allow pets (I have to travel with 2 small dogs)!!  Yeah it's not the nicest hotel I've ever stayed at, but it is ridiculously cheap...and I am always pleasantly surprised at the quality you get here for the low price.  And...bonus...beds are super comfy!</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r144978584-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>144978584</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Price was right...</t>
+  </si>
+  <si>
+    <t>Just passing thru the area got the room pretty cheap. It was a fairly clean comfortable quiet room. When we walked to the main building for breakfast in the morning we saw mattresses being taken out of two rooms and they were wearing gloves! We were glad we were leaving. The breakfast was pretty empty and we heard from someone staying there that it had been that way for the week he had been there.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r142462218-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>142462218</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Southern Vacation</t>
+  </si>
+  <si>
+    <t>Everything was very good, but the addition of safety bars in the bathrooms, especially the tub area , and refer/micros in all rooms would make it great.  We would recommend to anyone, for a nice hotel to stay at</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r142387095-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>142387095</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r142176234-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>142176234</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r140600433-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>140600433</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Excellent  stay!!!</t>
+  </si>
+  <si>
+    <t>The stay at La Quinta was great.   We had the king suite and it was huge and reasonablly priced.  The staff were very helpful and service was perfect.  We could hear road traffic but didnt really affect sleep quality. I would definitly stay here again and would recommend highly to others.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r140460516-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>140460516</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>Great Value!!</t>
+  </si>
+  <si>
+    <t>A real surprise!!When I found out the price of the room, I wasn't expecting much, but I was pleasantly surprised. Very clean, comfortable &amp; nice size. Good free breakfast &amp; lots of restaurants within walking distance. Right across the freeway from a mall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r138973160-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>138973160</t>
+  </si>
+  <si>
+    <t>08/31/2012</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>We have made this our yearly hotel for the past couple of years and the place has always been clean with excellent service.  It's conveniently located to many eating places that are in walking distance like denny's, Richard's, waffle House, and Starbucks.  the mall is right across from it as well.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r137531480-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>137531480</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r137068532-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>137068532</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>Great staff, Convenient location, Nice rooms</t>
+  </si>
+  <si>
+    <t>This is our 6th La Quinta in 10 days and the first Inn. We got a great rate, and a nice large clean room. This hotel is run very well run and it shows...the GM Tangeria Rideaux is wonderful and the staff that we met were fantastic. Do not hesitate to book this hotel as you will not be disappointed, and I'm sure if you have any issue it will be dealt with promptly and to your satisfaction. We now will have no hesitation to book an Inn property in the future.Thanks to all at Baytown West.Trev D.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r137031929-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>137031929</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>It will do</t>
+  </si>
+  <si>
+    <t>Not a bad hotel for a couple of nights. Easy to get to but make sure you have the right La Quinta. There are 2 within a 1/4 of a mile of each other. Check in went well without any problems. Room was clean. A little small though but it had a fridge, microwave and coffee maker. Bathroom is way to small. It was about the size of closet. Walk in and bam, toilet! My only complaint which they later fixed was the free WIFI. I couldnt connect to WIFI and when I called for assistance they gave me the number to guest tech and had me call and diagnose the problem. I do IT service and a simple reboot of the router would have worked but the front desk from talking to him wasnt sure what a router was or quite possible where it was at. It was fixed the next day. Will I stay here again? Maybe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Not a bad hotel for a couple of nights. Easy to get to but make sure you have the right La Quinta. There are 2 within a 1/4 of a mile of each other. Check in went well without any problems. Room was clean. A little small though but it had a fridge, microwave and coffee maker. Bathroom is way to small. It was about the size of closet. Walk in and bam, toilet! My only complaint which they later fixed was the free WIFI. I couldnt connect to WIFI and when I called for assistance they gave me the number to guest tech and had me call and diagnose the problem. I do IT service and a simple reboot of the router would have worked but the front desk from talking to him wasnt sure what a router was or quite possible where it was at. It was fixed the next day. Will I stay here again? Maybe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r134736994-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>134736994</t>
+  </si>
+  <si>
+    <t>07/18/2012</t>
+  </si>
+  <si>
+    <t>motel stay</t>
+  </si>
+  <si>
+    <t>This place is very clean, friendly and honest. They will take care of any problem immediately. If I ever come to this area again, I will definetely stay here.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r133906088-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>133906088</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>The price is right.</t>
+  </si>
+  <si>
+    <t>This is a very fair price. The location is convenient. The pool is clean. The breakfast is good. Microwave and fridge worked and were convenient. Totally soundproof rooms. The rooms are slightly small for the amount of furnishings and the bathrooms are also small. Cleaning is not really as thorough as it should be. All in all a good deal.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r133884326-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>133884326</t>
+  </si>
+  <si>
+    <t>Surprise in Baytown</t>
+  </si>
+  <si>
+    <t>I was hesitant to book a reservation here do to the low $49.00 per night rate. However, there were three reviews on Tripadvisor that caused me to go ahead. My wife and I were pleasantly surpised to find a very well maintained, older property. The rooms, although somewhat smaller than some hotels we have stayed in,  were well appointed, clean, and nicely painted. The staff was very guest oriented and friendly from the front desk clerk to the housekeepers. The pool, which we did not have time to use, was very well maintained. The breakfast had many good choices and the dinning area was very clean. All in all, it was an enjoyable two night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was hesitant to book a reservation here do to the low $49.00 per night rate. However, there were three reviews on Tripadvisor that caused me to go ahead. My wife and I were pleasantly surpised to find a very well maintained, older property. The rooms, although somewhat smaller than some hotels we have stayed in,  were well appointed, clean, and nicely painted. The staff was very guest oriented and friendly from the front desk clerk to the housekeepers. The pool, which we did not have time to use, was very well maintained. The breakfast had many good choices and the dinning area was very clean. All in all, it was an enjoyable two night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r120205097-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>120205097</t>
+  </si>
+  <si>
+    <t>11/05/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>We were unexpectedly delayed returning home from an out of state vacation while driving.   I called the La Quinta East in Baytown,TX  and staff member, Elizabeth, was wonderful.  We were very concerned over not having reservations, Elizabeth took care of everything in every way.  The room was spacious and so clean, all our stress was gone quickly.  The only concern we had was "Where to take our small dog outside?".  I would recommend this La Quinta highly.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r119747901-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>119747901</t>
+  </si>
+  <si>
+    <t>10/26/2011</t>
+  </si>
+  <si>
+    <t>A nice place to stay</t>
+  </si>
+  <si>
+    <t>We always like to stay at the LaQuinta chain. We have always found them to be nice. We stayed on the ground floor, on an inside room (not near the parking lot side). The room was nice and it was quiet. They have a complimentary breakfast which includes several choices of items, including waffles, hard boiled eggs, yogurt, breads, etc.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r63696017-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>63696017</t>
+  </si>
+  <si>
+    <t>05/09/2010</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>My mom and I stayed here for four nights while visiting family in nearby Highlands.  The location is right off I-10 near a variety of fast food and casual restaurants.  There's a mall across the freeway and some of the usual "big box" stores further down the road (i.e., wal mart.)  The only drawback of the location is the one-way service road the hotel is located on.  Had to plan ahead a bit when going to our family's house as we couldn't return to the hotel the same way we came.  Not a huge deal, but I was glad I could refer to my mobile mapping software.
+We had a double queen with a fridge, microwave and coffeemaker.  (We are kind of big coffee drinkers, so I was glad to see a standard 4 cup machine as opposed to one of the "single serve" machines...bought some coffee and filters at the grocery store so we could make our own.)  The room was kind of on the small side, but it was clean and comfortable.   The A/C was a little noisy, but cooled the room nicely (it was quite warm when we got there and it took a little time to cool the room down, but once it was cool I actually had to turn the air down because it was getting chilly.)   Free wifi  worked reasonably well most of the time.  Houskeeping service was friendly and efficient.
+The lobby and...My mom and I stayed here for four nights while visiting family in nearby Highlands.  The location is right off I-10 near a variety of fast food and casual restaurants.  There's a mall across the freeway and some of the usual "big box" stores further down the road (i.e., wal mart.)  The only drawback of the location is the one-way service road the hotel is located on.  Had to plan ahead a bit when going to our family's house as we couldn't return to the hotel the same way we came.  Not a huge deal, but I was glad I could refer to my mobile mapping software.We had a double queen with a fridge, microwave and coffeemaker.  (We are kind of big coffee drinkers, so I was glad to see a standard 4 cup machine as opposed to one of the "single serve" machines...bought some coffee and filters at the grocery store so we could make our own.)  The room was kind of on the small side, but it was clean and comfortable.   The A/C was a little noisy, but cooled the room nicely (it was quite warm when we got there and it took a little time to cool the room down, but once it was cool I actually had to turn the air down because it was getting chilly.)   Free wifi  worked reasonably well most of the time.  Houskeeping service was friendly and efficient.The lobby and grounds were very clean.  They came by in the morning to sweep the walkways of cigarette butts and the like.  The pool area was decent...a bit chilly but clean and uncrowded while we were there.Breakfast was pretty standard continental fare, cereal, toaster waffles, etc.  A little disappoined that they didn't have fresh bagles.  All they had were pre-packaged ones with raisens, which I personally don't care for.  Breakfast and front desk staff were friendly and helpful each morning.All in all, it was a good stay for the price ($36 on priceline before taxes.)  I would definitely stay there again if on a similar budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>My mom and I stayed here for four nights while visiting family in nearby Highlands.  The location is right off I-10 near a variety of fast food and casual restaurants.  There's a mall across the freeway and some of the usual "big box" stores further down the road (i.e., wal mart.)  The only drawback of the location is the one-way service road the hotel is located on.  Had to plan ahead a bit when going to our family's house as we couldn't return to the hotel the same way we came.  Not a huge deal, but I was glad I could refer to my mobile mapping software.
+We had a double queen with a fridge, microwave and coffeemaker.  (We are kind of big coffee drinkers, so I was glad to see a standard 4 cup machine as opposed to one of the "single serve" machines...bought some coffee and filters at the grocery store so we could make our own.)  The room was kind of on the small side, but it was clean and comfortable.   The A/C was a little noisy, but cooled the room nicely (it was quite warm when we got there and it took a little time to cool the room down, but once it was cool I actually had to turn the air down because it was getting chilly.)   Free wifi  worked reasonably well most of the time.  Houskeeping service was friendly and efficient.
+The lobby and...My mom and I stayed here for four nights while visiting family in nearby Highlands.  The location is right off I-10 near a variety of fast food and casual restaurants.  There's a mall across the freeway and some of the usual "big box" stores further down the road (i.e., wal mart.)  The only drawback of the location is the one-way service road the hotel is located on.  Had to plan ahead a bit when going to our family's house as we couldn't return to the hotel the same way we came.  Not a huge deal, but I was glad I could refer to my mobile mapping software.We had a double queen with a fridge, microwave and coffeemaker.  (We are kind of big coffee drinkers, so I was glad to see a standard 4 cup machine as opposed to one of the "single serve" machines...bought some coffee and filters at the grocery store so we could make our own.)  The room was kind of on the small side, but it was clean and comfortable.   The A/C was a little noisy, but cooled the room nicely (it was quite warm when we got there and it took a little time to cool the room down, but once it was cool I actually had to turn the air down because it was getting chilly.)   Free wifi  worked reasonably well most of the time.  Houskeeping service was friendly and efficient.The lobby and grounds were very clean.  They came by in the morning to sweep the walkways of cigarette butts and the like.  The pool area was decent...a bit chilly but clean and uncrowded while we were there.Breakfast was pretty standard continental fare, cereal, toaster waffles, etc.  A little disappoined that they didn't have fresh bagles.  All they had were pre-packaged ones with raisens, which I personally don't care for.  Breakfast and front desk staff were friendly and helpful each morning.All in all, it was a good stay for the price ($36 on priceline before taxes.)  I would definitely stay there again if on a similar budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r7173490-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>7173490</t>
+  </si>
+  <si>
+    <t>03/15/2007</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>Drove 16 hours to stay in a dump.  After checking in, at the ungodly hour of 1AM at this location, the bed was all springs, and the stench of mold was overwhelming, but at that point we just wanted out of the van.  The next morning the staff moved us to a more acceptable room for our next night, gave us a free movie and were very pleasant.  But there was no other compensation and the "new" room was only marginal.  My little girls were really looking forward to a swim in the unheated pool, but it was being chemically treated during normal open hours, why did they not do that prior to pool hours!This property is in bad repair, and LaQuinta should be ashamed. True rating would be a 1.5MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>Drove 16 hours to stay in a dump.  After checking in, at the ungodly hour of 1AM at this location, the bed was all springs, and the stench of mold was overwhelming, but at that point we just wanted out of the van.  The next morning the staff moved us to a more acceptable room for our next night, gave us a free movie and were very pleasant.  But there was no other compensation and the "new" room was only marginal.  My little girls were really looking forward to a swim in the unheated pool, but it was being chemically treated during normal open hours, why did they not do that prior to pool hours!This property is in bad repair, and LaQuinta should be ashamed. True rating would be a 1.5More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r6085837-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>6085837</t>
+  </si>
+  <si>
+    <t>11/07/2006</t>
+  </si>
+  <si>
+    <t>Excellent Value Overall</t>
+  </si>
+  <si>
+    <t>The good:
+The whole place has recently been refurbished and all the rooms are brand new and very comfortable. The bathrooms have new fittings and are spotless. Beds are great, big and comfy. Sheets always crisp and clean. Rooms are NOT the typical USA motel ones with the huge window between you and the parking lot, which I never feel safe in. The building is 4 storeys which means you are off the ground and don't have to suffer every car that pulls into the parking lot at 3am. Some rooms have a small fridge and a microwave, others don't - best to check before you go if you need these appliances. There is hi-speed wireless internet in all rooms and is usually very reliable. There is a small fitness room with a treadmill, row machine and stepper. All three are excellent quality machines and nobody seems to ever use them (except me of course). The hotel is situated to the east of Houston, so you can generally avoid most of the traffic if you need to travel to Beaumont or New Orleans or even into Houston itself, as most of the congestion seemed to me to be concentrated in the west. Hotel staff are very friendly and helpful. The maids are also very nice and helpful ladies and always smile and say 'buenos dias' when they see you in the morning. Generally the staff are all over and above...The good:The whole place has recently been refurbished and all the rooms are brand new and very comfortable. The bathrooms have new fittings and are spotless. Beds are great, big and comfy. Sheets always crisp and clean. Rooms are NOT the typical USA motel ones with the huge window between you and the parking lot, which I never feel safe in. The building is 4 storeys which means you are off the ground and don't have to suffer every car that pulls into the parking lot at 3am. Some rooms have a small fridge and a microwave, others don't - best to check before you go if you need these appliances. There is hi-speed wireless internet in all rooms and is usually very reliable. There is a small fitness room with a treadmill, row machine and stepper. All three are excellent quality machines and nobody seems to ever use them (except me of course). The hotel is situated to the east of Houston, so you can generally avoid most of the traffic if you need to travel to Beaumont or New Orleans or even into Houston itself, as most of the congestion seemed to me to be concentrated in the west. Hotel staff are very friendly and helpful. The maids are also very nice and helpful ladies and always smile and say 'buenos dias' when they see you in the morning. Generally the staff are all over and above what you may expect to find in a motel. There are lots of restuarants within walking distance. Outback Steakhouse, Chilis, Cracker Barrel, Denny's, Mexican and Italian buffet places and also a Mcdonalds and Wendy's among others. The Jacinto Mall is across the road, on the other side of the Interstate, and you can walk under the bridge and be there within a few minutes. Prepare to get some funny stares though, as Texans are not exactly big walkers, if you catch my drift. And in summer you are going to want to drive anyway due to the killer humidity.The bad:Get a room on the far side of the hotel, away from the interstate, otherwise the noise may bother you. The windows are double glazed but it can still be a bit disturbing if you are a light sleeper. The swimming pool is a let-down, small like a bathtub and right next to the interstate which does not make it very relaxing or pleasant to use. Breakfast is a bit skimpy: small cereal boxes, a waffle maker, fruit and yoghurt. If you're lucky there might be a bagel or two as well. Nothing cooked or fresh apart from the fruit. Good enough for me, but it may be too spartan for some people. Generally: If you are passing through Houston or visiting on business and need somewhere economical that gives a clean safe room in pleasant surrounds then this is a great place to stay. I stay here every time I visit Houston,  which is about 3 times a year, and will continue to do so as long as they maintain the present very high standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>The good:
+The whole place has recently been refurbished and all the rooms are brand new and very comfortable. The bathrooms have new fittings and are spotless. Beds are great, big and comfy. Sheets always crisp and clean. Rooms are NOT the typical USA motel ones with the huge window between you and the parking lot, which I never feel safe in. The building is 4 storeys which means you are off the ground and don't have to suffer every car that pulls into the parking lot at 3am. Some rooms have a small fridge and a microwave, others don't - best to check before you go if you need these appliances. There is hi-speed wireless internet in all rooms and is usually very reliable. There is a small fitness room with a treadmill, row machine and stepper. All three are excellent quality machines and nobody seems to ever use them (except me of course). The hotel is situated to the east of Houston, so you can generally avoid most of the traffic if you need to travel to Beaumont or New Orleans or even into Houston itself, as most of the congestion seemed to me to be concentrated in the west. Hotel staff are very friendly and helpful. The maids are also very nice and helpful ladies and always smile and say 'buenos dias' when they see you in the morning. Generally the staff are all over and above...The good:The whole place has recently been refurbished and all the rooms are brand new and very comfortable. The bathrooms have new fittings and are spotless. Beds are great, big and comfy. Sheets always crisp and clean. Rooms are NOT the typical USA motel ones with the huge window between you and the parking lot, which I never feel safe in. The building is 4 storeys which means you are off the ground and don't have to suffer every car that pulls into the parking lot at 3am. Some rooms have a small fridge and a microwave, others don't - best to check before you go if you need these appliances. There is hi-speed wireless internet in all rooms and is usually very reliable. There is a small fitness room with a treadmill, row machine and stepper. All three are excellent quality machines and nobody seems to ever use them (except me of course). The hotel is situated to the east of Houston, so you can generally avoid most of the traffic if you need to travel to Beaumont or New Orleans or even into Houston itself, as most of the congestion seemed to me to be concentrated in the west. Hotel staff are very friendly and helpful. The maids are also very nice and helpful ladies and always smile and say 'buenos dias' when they see you in the morning. Generally the staff are all over and above what you may expect to find in a motel. There are lots of restuarants within walking distance. Outback Steakhouse, Chilis, Cracker Barrel, Denny's, Mexican and Italian buffet places and also a Mcdonalds and Wendy's among others. The Jacinto Mall is across the road, on the other side of the Interstate, and you can walk under the bridge and be there within a few minutes. Prepare to get some funny stares though, as Texans are not exactly big walkers, if you catch my drift. And in summer you are going to want to drive anyway due to the killer humidity.The bad:Get a room on the far side of the hotel, away from the interstate, otherwise the noise may bother you. The windows are double glazed but it can still be a bit disturbing if you are a light sleeper. The swimming pool is a let-down, small like a bathtub and right next to the interstate which does not make it very relaxing or pleasant to use. Breakfast is a bit skimpy: small cereal boxes, a waffle maker, fruit and yoghurt. If you're lucky there might be a bagel or two as well. Nothing cooked or fresh apart from the fruit. Good enough for me, but it may be too spartan for some people. Generally: If you are passing through Houston or visiting on business and need somewhere economical that gives a clean safe room in pleasant surrounds then this is a great place to stay. I stay here every time I visit Houston,  which is about 3 times a year, and will continue to do so as long as they maintain the present very high standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r2174245-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>2174245</t>
+  </si>
+  <si>
+    <t>06/08/2004</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This is a great place to stay.  Staff is nice and hotel is very clean.  Rooms even have ceiling fans (very nice to have in Houston even with AC). I would recommend this place to anyone who wants a great place to stay for a very reasonable price.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1381,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1413,3135 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s">
+        <v>188</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" t="s">
+        <v>200</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+      <c r="L28" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>211</v>
+      </c>
+      <c r="J30" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" t="s">
+        <v>214</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" t="s">
+        <v>220</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>221</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>223</v>
+      </c>
+      <c r="J32" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" t="s">
+        <v>226</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" t="s">
+        <v>200</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>221</v>
+      </c>
+      <c r="O34" t="s">
+        <v>200</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" t="s">
+        <v>237</v>
+      </c>
+      <c r="L35" t="s">
+        <v>238</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" t="s">
+        <v>188</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>240</v>
+      </c>
+      <c r="J36" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" t="s">
+        <v>242</v>
+      </c>
+      <c r="L36" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>221</v>
+      </c>
+      <c r="O36" t="s">
+        <v>188</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" t="s">
+        <v>247</v>
+      </c>
+      <c r="L37" t="s">
+        <v>248</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" t="s">
+        <v>252</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>249</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" t="s">
+        <v>255</v>
+      </c>
+      <c r="K39" t="s">
+        <v>256</v>
+      </c>
+      <c r="L39" t="s">
+        <v>257</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>249</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>258</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" t="s">
+        <v>260</v>
+      </c>
+      <c r="K40" t="s">
+        <v>261</v>
+      </c>
+      <c r="L40" t="s">
+        <v>262</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>249</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>265</v>
+      </c>
+      <c r="J41" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" t="s">
+        <v>267</v>
+      </c>
+      <c r="L41" t="s">
+        <v>268</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>269</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>271</v>
+      </c>
+      <c r="J42" t="s">
+        <v>272</v>
+      </c>
+      <c r="K42" t="s">
+        <v>273</v>
+      </c>
+      <c r="L42" t="s">
+        <v>274</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>277</v>
+      </c>
+      <c r="J43" t="s">
+        <v>272</v>
+      </c>
+      <c r="K43" t="s">
+        <v>278</v>
+      </c>
+      <c r="L43" t="s">
+        <v>279</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>275</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" t="s">
+        <v>283</v>
+      </c>
+      <c r="K44" t="s">
+        <v>284</v>
+      </c>
+      <c r="L44" t="s">
+        <v>285</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>286</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>288</v>
+      </c>
+      <c r="J45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K45" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" t="s">
+        <v>291</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>292</v>
+      </c>
+      <c r="O45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>293</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>294</v>
+      </c>
+      <c r="J46" t="s">
+        <v>295</v>
+      </c>
+      <c r="K46" t="s">
+        <v>296</v>
+      </c>
+      <c r="L46" t="s">
+        <v>297</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>299</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>300</v>
+      </c>
+      <c r="J47" t="s">
+        <v>301</v>
+      </c>
+      <c r="K47" t="s">
+        <v>302</v>
+      </c>
+      <c r="L47" t="s">
+        <v>303</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>304</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>307</v>
+      </c>
+      <c r="J48" t="s">
+        <v>308</v>
+      </c>
+      <c r="K48" t="s">
+        <v>309</v>
+      </c>
+      <c r="L48" t="s">
+        <v>310</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>311</v>
+      </c>
+      <c r="O48" t="s">
+        <v>188</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>314</v>
+      </c>
+      <c r="J49" t="s">
+        <v>315</v>
+      </c>
+      <c r="K49" t="s">
+        <v>316</v>
+      </c>
+      <c r="L49" t="s">
+        <v>317</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_487.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_487.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="490">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r585978204-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>1222237</t>
+  </si>
+  <si>
+    <t>585978204</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>very nice , clean room , totally enjoyed it ,SLEPT VERY GOOD BED</t>
+  </si>
+  <si>
+    <t>totally AWESOME, I lived the bed everything was clean an neat. We were close to the places we came to see. rite off the highway. The people workers was super nice ( employees). we found it very easy. very close to where we headed. got free coffee. rooms very clean. felt like I was at home   loved the bedrooms</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r583957357-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>583957357</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Very clean and well appointed.  Good parking.  Easy quick checkin.  Lots of food within easy walk.  Fair price for the area.    Nice lady at counter named Marisol. Fridge and microwave.  Very quiet.  AC worked great.  All in all enjoyed my stay.   Recommend.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r583314932-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>1222237</t>
-  </si>
-  <si>
     <t>583314932</t>
   </si>
   <si>
@@ -174,12 +216,6 @@
     <t>I stay at motel 6 baytown garth road everytime come in town .they have clean rooms , clean facilities , price is decent . Staff were helpful during the stay enjoyed a lot , i look forward to coming and staying at motel 6 again</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r583181242-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -213,6 +249,45 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r559384867-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>559384867</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Good, clean, affordable and the best part, PET Friendly and no additional cost</t>
+  </si>
+  <si>
+    <t>Ok, this is not my normal spot to stay....mainly because it is right off I-10, in fact the entrance is a little tough to find with the construction on I-10, but it was pretty affordable.  I only paid $71 with no additional fees for my dog. The room had wood floors and it was clean and functional.  It has a small frog and a microwave.  The only thing I will warn against is that this Motel seems to get a lot of late check- ins, so you hear a fair amount of noise if people are coming in close to your room.  My doggie barked every time. :o(</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r531212204-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>531212204</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>best motel ive stayed at in years.</t>
+  </si>
+  <si>
+    <t>this is the best place ive stayed at in years.im here until Febuary 2018 and this is the motel of my choice.The front desk clerk  was very professional and really helpful.my names Scott baker and I recommend this motel 6 to all my co-workers and everyone else.Come on by.....We'll leave a light on for you.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r380939374-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -282,6 +357,42 @@
     <t>This place is a dump! Rooms are filthy. They are not taken care of see pictures! The rooms are filthy smell like smoke! I had to change my first room and only stayed here because I had driven 771 miles I put plastic bags on my feet to take a shower! I am so upset I'm calling corporate as soon as I'm done with this review! The pictures say it all!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r343450610-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>343450610</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>See photos of room conditions</t>
+  </si>
+  <si>
+    <t>Non smoking room smelled terrible. See what air conditioner looked like in photos. Rather than comments, we recommend you just see photos and make your own decision about whether you'd want to stay in this room overnight.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r333773862-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>333773862</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>Surprise change</t>
+  </si>
+  <si>
+    <t>While there are multiple places to stay in Baytown, I chose this hotel because I am a rewards member. I haven't  been here for awhile,  but this hotel is still a great place to stay.  It is convenient to area restaurants  and was clean and comfortable.  The one thing I do wish is a better selection of breakfast items. The upside is that the hotel is next door to Cracker  Barrel.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r300321511-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -336,6 +447,45 @@
     <t xml:space="preserve">This place is by far cry from what it is listed as online.  There are no amenities in any of the rooms as stated and have to pay for Wi-Fi. They made reservations for us on the reservation line including collecting credit card information and name and lost the reservations and now our credit card is just floating around and no one knows how this happend. We were also quoted on price and got another.  </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r241951443-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>241951443</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Razor blade in the shower? No thanks.</t>
+  </si>
+  <si>
+    <t>The staff was rude, the room was really crappy with broken and cracked tile through the whole bathroom(be careful because it will pinch your feet), the toilet never stopped running, and there was A RAZOR BLADE IN THE SHOWER DRAIN. I booked through expedia so all I got was a hung up on three times and finally a $20 credit. All the hotel did was say maintenance could go get it out for us. I didn't even stay the second night. If a razor blade was in the shower who knows what else I could find with another night. I just wish I saw it before we stayed the first night so I could have left and stayed somewhere decent. The only good thing about this motel was it's close to a lot of food.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was rude, the room was really crappy with broken and cracked tile through the whole bathroom(be careful because it will pinch your feet), the toilet never stopped running, and there was A RAZOR BLADE IN THE SHOWER DRAIN. I booked through expedia so all I got was a hung up on three times and finally a $20 credit. All the hotel did was say maintenance could go get it out for us. I didn't even stay the second night. If a razor blade was in the shower who knows what else I could find with another night. I just wish I saw it before we stayed the first night so I could have left and stayed somewhere decent. The only good thing about this motel was it's close to a lot of food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r237767586-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>237767586</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Good if traveling with pets</t>
+  </si>
+  <si>
+    <t>Stayed here when traveling cross country with pets. Hotel needs updating, there is another new La Quinta (Inn &amp; Suites) on the other side of the freeway I would stay there if you do not have pets traveling with you.  Room amenities were what you would expect for older hotel,however they were clean and odor free. Staff was friendly, not much out for breakfast compared to other LaQuinta's we stayed at. Parking lot was small, gas station and Starbucks next door other shopping nearby. There was another hotel to the back that many truckers seem to stay at so there was a lot of truck noise outside. Easy to get to off the freeway but found it confusing to get back on the freeway heading east.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Stayed here when traveling cross country with pets. Hotel needs updating, there is another new La Quinta (Inn &amp; Suites) on the other side of the freeway I would stay there if you do not have pets traveling with you.  Room amenities were what you would expect for older hotel,however they were clean and odor free. Staff was friendly, not much out for breakfast compared to other LaQuinta's we stayed at. Parking lot was small, gas station and Starbucks next door other shopping nearby. There was another hotel to the back that many truckers seem to stay at so there was a lot of truck noise outside. Easy to get to off the freeway but found it confusing to get back on the freeway heading east.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r236642992-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -391,6 +541,39 @@
   </si>
   <si>
     <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r209474920-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>209474920</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>A comfortable stay</t>
+  </si>
+  <si>
+    <t>This is an older property along interstate 10 exit 792.  Rooms are large with table/chairs, fridge, micro, and large flat screen TV.  King bed with 3 pillows.  Minimal towels, soap and no other toiletries.  First's room A/C not working, management made an immediate room change with an apology.  Outdoor pool.  No breakfast, no in room coffee.  Low price makes this property a value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r181282188-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>181282188</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>sad little place</t>
+  </si>
+  <si>
+    <t>Old hotel with new TVs.  Our "non-smoking" room reeked of cigarettes but not surprising considering that many guests routinely took up 2 parking places.  The carpet left the bottoms of my feet black,  The towels were tiny and thin.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r179654205-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
@@ -414,9 +597,6 @@
 DIRTY DIRTY!! I also feel as though they discriminate against pets (which they say they are pet friendly). I feel as though they put us in that terrible room due to a pet. I bring a kennel with me and when my dog is not being supervised (including at...1. We drove straight through for 991 miles. Wanted hot shower/sleep2. Always stay La Quinta w/o issues ( until now)3. It was a handicap room so no parking close as we aren't handicapped. ( no sticker)So disappointed with this past weeks stay. We made reservations online and in the special request we noted traveling with pet. We were told to do so via a call to the hotel (booked online for corporate discount). My husband got me calmed down and we dealt with the room due to being very tired and just worn out. Pretend to be camping it helps. The room smelled very damp and musty. It is a very dark room, poor lighting, spiders with webs, dust on headboard and looked liked someone took a cup of coffee and threw it on the inside door, it was dried there and sticky. Carpet seemed unclean. Had it not been for the bleach smell on the sheets it would have been unbearable. Not to mention that the coffee pot was missing parts. I mean come on it is a very basic and cheap item. Get a new one. DIRTY DIRTY!! I also feel as though they discriminate against pets (which they say they are pet friendly). I feel as though they put us in that terrible room due to a pet. I bring a kennel with me and when my dog is not being supervised (including at night for sleeping) he is in the kennel. I do not leave the dog unattended (not even in kennel) when leaving the hotel. I will never stay at this location again and I will certainly not recommend it.MoreShow less</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>1. We drove straight through for 991 miles. Wanted hot shower/sleep
 2. Always stay La Quinta w/o issues ( until now)
 3. It was a handicap room so no parking close as we aren't handicapped. ( no sticker)
@@ -465,6 +645,39 @@
     <t>We arrived to find dirty surfaces in our room, bedspread, sink, toilet had hair and debris.  When I pulled back the sheet it had debris at the foot of the bed.  We notified the manager and they immediately gave us another room which was spotlessly clean.  The bed was VERY comfortable with lots of fluffy pillows.  The shower was good.  They were a little stingy with the washcloths (only two given per day for two occupants).  The room was of a decent size and the air conditioner gave out deliciously cold air.  When we checked in they told us breakfast was until 9:30 (already a stretch when you are wanting to sleep in) then on the second day we came down at 9:14 and were told breakfast was over.  I mentioned that we were told it was until 9:30 and she said well, it has changed.  Nice to be informed, right?  We would have tried a little harder to be down before 9:00.  The breakfast was pretty good (yogurt, cereal, juice, coffee, waffles, oatmeal) you just had better get up early to get it.  Some people said that theft was an issue but we did not have a problem and did not feel unsafe.  All said, we were looking for a decent place on a tight budget and were not disappointed. We would stay here again since management tried very hard to please.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r168399467-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>168399467</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>The hotel is very average with average service. You pay more for the room then you should. The staff here is hit or miss on how much they care about the customers. All the employees complain about what they make and so forth..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r166953743-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>166953743</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>agree with others , this was a one night stay only but it was overall good, i was on my way to florida and needed a place to spend the night , when i arrived late @ 11pm , there was a nice decent clean room to sleep for the night ,my only concern was that they allowed pets in the rooms but , no funny smells or other , i would stay here again ...</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r165739348-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -480,9 +693,6 @@
     <t>I can say I have stayed at better and worse hotels. The main thing is that the room was clean and we were just staying one night prior to going on a cruise in Galveston. There was a worn spot by the entry door of the room which was more cosmetic then necessity. There was not enough hot water in the evening when I took a shower before bed, but the next morning was fine. Old Mall was across interstate and many eating establishments nearby. WiFi was free as in all La Quinta hotels, but was hit or miss. Front desk was very friendly and greeted you each time you entered the area if they were not busy.MoreShow less</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>I can say I have stayed at better and worse hotels. The main thing is that the room was clean and we were just staying one night prior to going on a cruise in Galveston. There was a worn spot by the entry door of the room which was more cosmetic then necessity. There was not enough hot water in the evening when I took a shower before bed, but the next morning was fine. Old Mall was across interstate and many eating establishments nearby. WiFi was free as in all La Quinta hotels, but was hit or miss. Front desk was very friendly and greeted you each time you entered the area if they were not busy.More</t>
   </si>
   <si>
@@ -513,6 +723,36 @@
     <t>This non smoking hotel reeks of cigarettes. I step off the elevator onto our floor and the hallway walls had random stains of who knows what all over, and not just in one area the stains run down both sides of the hallway( i took a picture to send to the company i was so disgusted) The carpet to our room was incredibly filthy throughout the hallway. The carpet in our room was badly stained, room smells of cigarettes, and there were stains all over the linens. This is my second night in a la Quinta and from both my experiences I will never waste my hard earned money in this dump again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r165062554-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>165062554</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>The Beds were comfortable. The location has easy on and off highway access and was very easy to find. The room was clean and inviting. The Price was pretty good compared to others of this level. The breakfast was good for anyone who is not diabetic or carb conscious. Waffles, yogurt, fruit, and lots of bread were included.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r164438605-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>164438605</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was a decent stop on our travels to florida. Love the easy access to freeway. Room was clean, staff nice, very good italian restaurant next door. Kids enjoyed pool. There was a lot more noise then we would have liked after midnight but overall a good stay. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r162092952-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -558,6 +798,42 @@
     <t>04/21/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r155234371-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>155234371</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Only for one night</t>
+  </si>
+  <si>
+    <t>We booked our room via hotwire as we needed a place to crash on our way to NOLA after visiting the Sapce Center.The room was ripe with smell of cigarettes past upon entering. We figured that we might last just for one night. But after seeing the bathtub and toilet, it was clear that we could not stay there. The bath tub was full of stains, the plug was rusty and there was hair on the counter. Props to the front desk clerk for changing us to a non smoking handicap room. That made our stay possible. But, regardless of the room you can see that this hotel is old, dingy and outdated. In our second room there were some stains on one part of the wall - probably a past leak. The popcorn ceilings are discolored over time and look very dingy. The beds were luckily clean, the wi fi signal was intermittent, and the breakfast was adequate for the price we paid. The walls are somewhat thin, we could hear our neighbors chatting and they were not yelling, just normal conversation.So, only 2 stars, one for the helpful hotel clerk and one for reasonably clean beds. We would not stay again though.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We booked our room via hotwire as we needed a place to crash on our way to NOLA after visiting the Sapce Center.The room was ripe with smell of cigarettes past upon entering. We figured that we might last just for one night. But after seeing the bathtub and toilet, it was clear that we could not stay there. The bath tub was full of stains, the plug was rusty and there was hair on the counter. Props to the front desk clerk for changing us to a non smoking handicap room. That made our stay possible. But, regardless of the room you can see that this hotel is old, dingy and outdated. In our second room there were some stains on one part of the wall - probably a past leak. The popcorn ceilings are discolored over time and look very dingy. The beds were luckily clean, the wi fi signal was intermittent, and the breakfast was adequate for the price we paid. The walls are somewhat thin, we could hear our neighbors chatting and they were not yelling, just normal conversation.So, only 2 stars, one for the helpful hotel clerk and one for reasonably clean beds. We would not stay again though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r155000036-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>155000036</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelby, the front desk clerk, is my hero and a wonderful employee. My grandson accidentally locked the bathroom door in our room. I called the front desk and Ms Shelby came to my room all smiles and had the door open in no time at all. She was so kind and understanding. I have been staying at LaQuinta Inns since 1988 and it's quality customer service from employees like Ms Shelby that keep me coming back. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r153738593-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -594,9 +870,6 @@
     <t xml:space="preserve">Great price. Just down the street from LaQuinta east but 25% less. Older  facility, but nice. No elevator!!! Easy access, but you have to go west to next exit to get back to Garth Rd where all the  restaurants are. Wifi signal was weak in my room. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r153035446-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -606,6 +879,36 @@
     <t>02/25/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r151843580-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>151843580</t>
+  </si>
+  <si>
+    <t>02/10/2013</t>
+  </si>
+  <si>
+    <t>No snack machines??</t>
+  </si>
+  <si>
+    <t>We stayed here for the weekend...the front desk personnel are very helpful, and welcoming! Nothing ever seemed to be a problem, they were wonderful! Room was clean, bedding fresh..the only problem I have with this hotel is there are NO snack machines!! There are ice machines, and drink machines, but no snack machines! It is a pet friendly chain so we stay at La Quinta often.Food in the area was plentiful and varied, within walking distance. Would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r150581282-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>150581282</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Ok budget hotel lack of electrical plug ins and blown fuzes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good pet friendly hotel right off of I 10 lack of electrical plug in make charging difficult fuze in bathroom blew while using hair dryer. Good for a night or two. Breakfast was good and stocked. Staff was very nice. Near lots of restaraunts and a great Italian eatery next door. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r150021948-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -630,9 +933,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r148691449-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -645,6 +945,39 @@
     <t>Great place to stay. The rooms were clean with nice comfy beds. We were able to bring pets. I was afraid the room would smell like animal but it was nice and fresh. Great grassy area and large bar-be-que pit by the pool.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r148290489-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>148290489</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>Amazing Value</t>
+  </si>
+  <si>
+    <t>There are two LaQuinta just a couple of blocks from each other.  The West is the inexpensive one, but it absolutely had everything so I see no reason to go to the newer one.  This hotel has been completely renovated.  The vanity area of the bathroom was huge.  The tub looked brand new and the tile looked great.  The carpet was new and so clean I actually walked around barefoot which is unusual for me.  The pillows were so good, I heard a guy ask what kind were they because we wanted to buy some like them.  The room was large and had a frige.  Had a flat screen tv and a table to eat at if you wanted.  The bed was great.  WE were on the end next to the vending area but could not hear any noise at all.  The breakfast was outstanding.  Not just waffles and cereal, but hard boiled eggs.  The attendant was there to help and cleaned up behind everyone making waffles.  There was every kind of shopping you could dream of  within 2 miles and lots of restaurants.  Had a great pool if you are traveling in the summer.  We were there to see the battleship and took the car ferry one way instead of the bridge which I think would be fun for kids.  The staff was very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>There are two LaQuinta just a couple of blocks from each other.  The West is the inexpensive one, but it absolutely had everything so I see no reason to go to the newer one.  This hotel has been completely renovated.  The vanity area of the bathroom was huge.  The tub looked brand new and the tile looked great.  The carpet was new and so clean I actually walked around barefoot which is unusual for me.  The pillows were so good, I heard a guy ask what kind were they because we wanted to buy some like them.  The room was large and had a frige.  Had a flat screen tv and a table to eat at if you wanted.  The bed was great.  WE were on the end next to the vending area but could not hear any noise at all.  The breakfast was outstanding.  Not just waffles and cereal, but hard boiled eggs.  The attendant was there to help and cleaned up behind everyone making waffles.  There was every kind of shopping you could dream of  within 2 miles and lots of restaurants.  Had a great pool if you are traveling in the summer.  We were there to see the battleship and took the car ferry one way instead of the bridge which I think would be fun for kids.  The staff was very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r147427715-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>147427715</t>
+  </si>
+  <si>
+    <t>12/14/2012</t>
+  </si>
+  <si>
+    <t>Great service &amp; Value</t>
+  </si>
+  <si>
+    <t>This is a wonderful location next to I-10. Desk clerk (Elizabeth) was VERY helpful.  VERY clean rooms and located near several mid-priced restaurants.Great location if your coming to Houston and is a good launching points for various tourist locations (La Porte is a short distance away with the Battleship Texas).Only disappointment (minor inconvenience) is television doesn't have a lot of stations.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r147121969-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -696,6 +1029,48 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r144687124-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>144687124</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for, and here it isn't much.</t>
+  </si>
+  <si>
+    <t>I spent two weeks at the La Quinta Baytown West because it's close to the business I was visiting. It's an older property in reasonable repair, but not well run. The continental breakfast is hit or miss, some days it didn't happen, but even when it did, it wasn't much. Rooms have single cup coffee makers, but the maids don't replenish the coffee. There's a small, dirty swimming pool and no other amenities to speak of.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r144161446-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>144161446</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Baytown West La Quinta -- Very Good Value</t>
+  </si>
+  <si>
+    <t>Attending Wings Over Houston for the first time, we were able to get reservations here less than a week in advance.  Since the room we had was about 1/4 mile from I-10, we didn't have a noise issue. The A/C worked well and was quiet. The area feels safe -- this property is easy to access and exit as there is a street along the perimeter on both the east and west sides. Nearby eateries include Texas Roadhouse, Carino's, Cracker Barrel; it's about 2 miles down Garth to a Wal-Mart if you've forgotten anything the front desk can't furnish (swimsuit, distilled water or bottled drinking water -- there's sulphur in the city water in Baytown -- etc.) 
+Rooms are clean and well-cared for; we were very pleased with the value. The breakfast bar is a typical La Quinta selection -- juice, coffee, cold cereal, boiled egg, waffle. Can't speak to the pool or to the Italian restaurant that shares the parking lot as I visited neither one.
+ One of our friends traveling with us has mobility issues -- our room was not specifically ADA but was on the ground floor and the compact space in the bathroom actually helped her access the shower by giving her a seat for entry and exit. The beds are the pillow-top type and remarkably comfortable.
+Also, because we were three people traveling together, we requested extra towels and the front desk attendant brought them...Attending Wings Over Houston for the first time, we were able to get reservations here less than a week in advance.  Since the room we had was about 1/4 mile from I-10, we didn't have a noise issue. The A/C worked well and was quiet. The area feels safe -- this property is easy to access and exit as there is a street along the perimeter on both the east and west sides. Nearby eateries include Texas Roadhouse, Carino's, Cracker Barrel; it's about 2 miles down Garth to a Wal-Mart if you've forgotten anything the front desk can't furnish (swimsuit, distilled water or bottled drinking water -- there's sulphur in the city water in Baytown -- etc.) Rooms are clean and well-cared for; we were very pleased with the value. The breakfast bar is a typical La Quinta selection -- juice, coffee, cold cereal, boiled egg, waffle. Can't speak to the pool or to the Italian restaurant that shares the parking lot as I visited neither one. One of our friends traveling with us has mobility issues -- our room was not specifically ADA but was on the ground floor and the compact space in the bathroom actually helped her access the shower by giving her a seat for entry and exit. The beds are the pillow-top type and remarkably comfortable.Also, because we were three people traveling together, we requested extra towels and the front desk attendant brought them to us right away.   If I had a complaint, it would be that there are very few outlets in the room; one of our traveling companions uses a CPAP machine, and at least one more place to plug in would've been very welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Attending Wings Over Houston for the first time, we were able to get reservations here less than a week in advance.  Since the room we had was about 1/4 mile from I-10, we didn't have a noise issue. The A/C worked well and was quiet. The area feels safe -- this property is easy to access and exit as there is a street along the perimeter on both the east and west sides. Nearby eateries include Texas Roadhouse, Carino's, Cracker Barrel; it's about 2 miles down Garth to a Wal-Mart if you've forgotten anything the front desk can't furnish (swimsuit, distilled water or bottled drinking water -- there's sulphur in the city water in Baytown -- etc.) 
+Rooms are clean and well-cared for; we were very pleased with the value. The breakfast bar is a typical La Quinta selection -- juice, coffee, cold cereal, boiled egg, waffle. Can't speak to the pool or to the Italian restaurant that shares the parking lot as I visited neither one.
+ One of our friends traveling with us has mobility issues -- our room was not specifically ADA but was on the ground floor and the compact space in the bathroom actually helped her access the shower by giving her a seat for entry and exit. The beds are the pillow-top type and remarkably comfortable.
+Also, because we were three people traveling together, we requested extra towels and the front desk attendant brought them...Attending Wings Over Houston for the first time, we were able to get reservations here less than a week in advance.  Since the room we had was about 1/4 mile from I-10, we didn't have a noise issue. The A/C worked well and was quiet. The area feels safe -- this property is easy to access and exit as there is a street along the perimeter on both the east and west sides. Nearby eateries include Texas Roadhouse, Carino's, Cracker Barrel; it's about 2 miles down Garth to a Wal-Mart if you've forgotten anything the front desk can't furnish (swimsuit, distilled water or bottled drinking water -- there's sulphur in the city water in Baytown -- etc.) Rooms are clean and well-cared for; we were very pleased with the value. The breakfast bar is a typical La Quinta selection -- juice, coffee, cold cereal, boiled egg, waffle. Can't speak to the pool or to the Italian restaurant that shares the parking lot as I visited neither one. One of our friends traveling with us has mobility issues -- our room was not specifically ADA but was on the ground floor and the compact space in the bathroom actually helped her access the shower by giving her a seat for entry and exit. The beds are the pillow-top type and remarkably comfortable.Also, because we were three people traveling together, we requested extra towels and the front desk attendant brought them to us right away.   If I had a complaint, it would be that there are very few outlets in the room; one of our traveling companions uses a CPAP machine, and at least one more place to plug in would've been very welcome.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r142462218-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -711,9 +1086,6 @@
     <t>Everything was very good, but the addition of safety bars in the bathrooms, especially the tub area , and refer/micros in all rooms would make it great.  We would recommend to anyone, for a nice hotel to stay at</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r142387095-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -732,6 +1104,30 @@
     <t>10/06/2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r141469925-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>141469925</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r140886449-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>140886449</t>
+  </si>
+  <si>
+    <t>09/21/2012</t>
+  </si>
+  <si>
+    <t>Great stop</t>
+  </si>
+  <si>
+    <t>Needed a quick place to stay on our way back to New Orleans and found the quickest La Quinta with my new app. Wound up with the suite for $85 and could not have been happier with the room and the extra space. Great value...</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r140600433-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -780,6 +1176,33 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r138610724-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>138610724</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>A Keeper</t>
+  </si>
+  <si>
+    <t>This is my fourth stay at this same location. Each time I have found the rooms to be exceptionally clean and the linens appear to be new.  It's true that the bathrooms are quite small but how much time does anyone really need to spend in there?  The beds are very comfortable and I've had a king, a queen and a double all of which were comfy. The only problem I've ever encountered was a non cooling refrigerator and that was just once. I didn't complain as I had no use for it that trip anyway. Now this hotel is located right next to a busy interstate so you are going to hear some road noise but it never prevented me from getting a good nights rest. The breakfast they provide is right in line for the price you pay, muffins, bagels, cold cereal and waffles and I've always taken a muffin to go. They also will provide extra coffee packets for the coffee maker in your room, just ask, they are happy to oblige. There are several well known eateries in close proximity. Honestly you are not going to find a better hotel for the money, believe me I've looked, and I will continue to give them my business. You should too.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is my fourth stay at this same location. Each time I have found the rooms to be exceptionally clean and the linens appear to be new.  It's true that the bathrooms are quite small but how much time does anyone really need to spend in there?  The beds are very comfortable and I've had a king, a queen and a double all of which were comfy. The only problem I've ever encountered was a non cooling refrigerator and that was just once. I didn't complain as I had no use for it that trip anyway. Now this hotel is located right next to a busy interstate so you are going to hear some road noise but it never prevented me from getting a good nights rest. The breakfast they provide is right in line for the price you pay, muffins, bagels, cold cereal and waffles and I've always taken a muffin to go. They also will provide extra coffee packets for the coffee maker in your room, just ask, they are happy to oblige. There are several well known eateries in close proximity. Honestly you are not going to find a better hotel for the money, believe me I've looked, and I will continue to give them my business. You should too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r137923940-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>137923940</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r137531480-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -822,6 +1245,33 @@
     <t>Not a bad hotel for a couple of nights. Easy to get to but make sure you have the right La Quinta. There are 2 within a 1/4 of a mile of each other. Check in went well without any problems. Room was clean. A little small though but it had a fridge, microwave and coffee maker. Bathroom is way to small. It was about the size of closet. Walk in and bam, toilet! My only complaint which they later fixed was the free WIFI. I couldnt connect to WIFI and when I called for assistance they gave me the number to guest tech and had me call and diagnose the problem. I do IT service and a simple reboot of the router would have worked but the front desk from talking to him wasnt sure what a router was or quite possible where it was at. It was fixed the next day. Will I stay here again? Maybe.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r135987871-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>135987871</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r135786705-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>135786705</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Staff was friendly, Room was clean. We had a family weekend get-away to Houston and Galveston, this hotel is a few miles away from from the city but it's worth the drive, safe, affordable and quiet. everything you I need for a stay.Thanks Guys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r134736994-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -837,9 +1287,6 @@
     <t>This place is very clean, friendly and honest. They will take care of any problem immediately. If I ever come to this area again, I will definetely stay here.</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r133906088-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
   </si>
   <si>
@@ -871,6 +1318,42 @@
   </si>
   <si>
     <t>I was hesitant to book a reservation here do to the low $49.00 per night rate. However, there were three reviews on Tripadvisor that caused me to go ahead. My wife and I were pleasantly surpised to find a very well maintained, older property. The rooms, although somewhat smaller than some hotels we have stayed in,  were well appointed, clean, and nicely painted. The staff was very guest oriented and friendly from the front desk clerk to the housekeepers. The pool, which we did not have time to use, was very well maintained. The breakfast had many good choices and the dinning area was very clean. All in all, it was an enjoyable two night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r133384419-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>133384419</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>went to a sports event for our son! Tournament</t>
+  </si>
+  <si>
+    <t>was a rainy trip!Slept comfortable keep up the good work, thanks!This is my opinion! I should not have to keep writing 100 words!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r131213526-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>131213526</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Nice..But...</t>
+  </si>
+  <si>
+    <t>Understand there are 2 LaQuinta properties at the Garth Ave offramp at I-10 in Baytown. We stayed at the WEST LaQuinta. Arriving at 5pm, our rom was not ready. Returned at 7 to a very clean and large suite/room above the office. The room was always very clean, but it was never ready until 3 to 4pm. Being a large room, the TV was some 18 feet from the bed. Also the AC was directly above the headboard and when it came on (a lot), you could not hear the TV.  All in all, it was nice, the staff friendly and needless to say, a Cracker Barrel less than a block away!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Understand there are 2 LaQuinta properties at the Garth Ave offramp at I-10 in Baytown. We stayed at the WEST LaQuinta. Arriving at 5pm, our rom was not ready. Returned at 7 to a very clean and large suite/room above the office. The room was always very clean, but it was never ready until 3 to 4pm. Being a large room, the TV was some 18 feet from the bed. Also the AC was directly above the headboard and when it came on (a lot), you could not hear the TV.  All in all, it was nice, the staff friendly and needless to say, a Cracker Barrel less than a block away!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r120205097-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
@@ -929,6 +1412,45 @@
     <t>My mom and I stayed here for four nights while visiting family in nearby Highlands.  The location is right off I-10 near a variety of fast food and casual restaurants.  There's a mall across the freeway and some of the usual "big box" stores further down the road (i.e., wal mart.)  The only drawback of the location is the one-way service road the hotel is located on.  Had to plan ahead a bit when going to our family's house as we couldn't return to the hotel the same way we came.  Not a huge deal, but I was glad I could refer to my mobile mapping software.
 We had a double queen with a fridge, microwave and coffeemaker.  (We are kind of big coffee drinkers, so I was glad to see a standard 4 cup machine as opposed to one of the "single serve" machines...bought some coffee and filters at the grocery store so we could make our own.)  The room was kind of on the small side, but it was clean and comfortable.   The A/C was a little noisy, but cooled the room nicely (it was quite warm when we got there and it took a little time to cool the room down, but once it was cool I actually had to turn the air down because it was getting chilly.)   Free wifi  worked reasonably well most of the time.  Houskeeping service was friendly and efficient.
 The lobby and...My mom and I stayed here for four nights while visiting family in nearby Highlands.  The location is right off I-10 near a variety of fast food and casual restaurants.  There's a mall across the freeway and some of the usual "big box" stores further down the road (i.e., wal mart.)  The only drawback of the location is the one-way service road the hotel is located on.  Had to plan ahead a bit when going to our family's house as we couldn't return to the hotel the same way we came.  Not a huge deal, but I was glad I could refer to my mobile mapping software.We had a double queen with a fridge, microwave and coffeemaker.  (We are kind of big coffee drinkers, so I was glad to see a standard 4 cup machine as opposed to one of the "single serve" machines...bought some coffee and filters at the grocery store so we could make our own.)  The room was kind of on the small side, but it was clean and comfortable.   The A/C was a little noisy, but cooled the room nicely (it was quite warm when we got there and it took a little time to cool the room down, but once it was cool I actually had to turn the air down because it was getting chilly.)   Free wifi  worked reasonably well most of the time.  Houskeeping service was friendly and efficient.The lobby and grounds were very clean.  They came by in the morning to sweep the walkways of cigarette butts and the like.  The pool area was decent...a bit chilly but clean and uncrowded while we were there.Breakfast was pretty standard continental fare, cereal, toaster waffles, etc.  A little disappoined that they didn't have fresh bagles.  All they had were pre-packaged ones with raisens, which I personally don't care for.  Breakfast and front desk staff were friendly and helpful each morning.All in all, it was a good stay for the price ($36 on priceline before taxes.)  I would definitely stay there again if on a similar budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r21389303-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>21389303</t>
+  </si>
+  <si>
+    <t>10/29/2008</t>
+  </si>
+  <si>
+    <t>I would stay here again.</t>
+  </si>
+  <si>
+    <t>Although the hotel has sustained some damage from Hurricane Ike, I was able to get a room, which is saying a lot, as most hotels in the area have no vacancies. The room is clean and the people are friendly. When the soft drink machine ate my money, they refunded it with no question and handed me a bottle of water. Most everyone in the hotel is either a disaster survivor who can't go back home or a disaster worker. The staff are cheerful and helpful.On the downside, the breakfast consists of bad fruit, cereal, and pre-packaged bagels and muffins. The good news is that there's a Starbucks within walking distance, as well as a number of good restaurants.I've spent a lot of my time working in the room, and the internet connection is ok, although sometimes painfully slow. However, all in all, considering the circumstances, it's been a positive experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>Although the hotel has sustained some damage from Hurricane Ike, I was able to get a room, which is saying a lot, as most hotels in the area have no vacancies. The room is clean and the people are friendly. When the soft drink machine ate my money, they refunded it with no question and handed me a bottle of water. Most everyone in the hotel is either a disaster survivor who can't go back home or a disaster worker. The staff are cheerful and helpful.On the downside, the breakfast consists of bad fruit, cereal, and pre-packaged bagels and muffins. The good news is that there's a Starbucks within walking distance, as well as a number of good restaurants.I've spent a lot of my time working in the room, and the internet connection is ok, although sometimes painfully slow. However, all in all, considering the circumstances, it's been a positive experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r19130470-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>19130470</t>
+  </si>
+  <si>
+    <t>08/19/2008</t>
+  </si>
+  <si>
+    <t>Better than the La Quinta Baytown East</t>
+  </si>
+  <si>
+    <t>The hotel is very clean with friendly staff. I have stayed at both the Baytown East and Baytown West La Quinta Inns (only a block apart) and this is a much better hotel.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d1222237-r7173490-Motel_6_Baytown_Garth_Rd-Baytown_Texas.html</t>
@@ -1531,11 +2053,17 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1581,8 +2109,12 @@
       <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1611,31 +2143,31 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -1652,7 +2184,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1668,7 +2200,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1677,26 +2209,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1709,7 +2237,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1725,52 +2253,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1786,52 +2310,54 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>83</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X7" t="s">
-        <v>86</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -1847,46 +2373,46 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1894,7 +2420,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1910,52 +2436,48 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
         <v>94</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" t="s">
-        <v>98</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1971,46 +2493,44 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
         <v>101</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>103</v>
       </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2018,7 +2538,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -2034,52 +2554,50 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
         <v>106</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>107</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>108</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
-      </c>
       <c r="O11" t="s">
-        <v>71</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
       <c r="Y11" t="s">
         <v>112</v>
       </c>
@@ -2121,17 +2639,23 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -2175,25 +2699,25 @@
         <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
         <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2238,29 +2762,25 @@
         <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
         <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2268,7 +2788,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2284,50 +2804,44 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>132</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>133</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>134</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>135</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>136</v>
       </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>137</v>
-      </c>
       <c r="O15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
         <v>2</v>
       </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2335,7 +2849,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -2372,29 +2886,25 @@
         <v>142</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O16" t="s">
-        <v>71</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2402,7 +2912,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -2418,50 +2928,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
         <v>145</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>146</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>147</v>
       </c>
-      <c r="K17" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" t="s">
-        <v>149</v>
-      </c>
       <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>150</v>
-      </c>
-      <c r="O17" t="s">
-        <v>71</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2469,7 +2975,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -2485,53 +2991,55 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
         <v>152</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>153</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
         <v>154</v>
-      </c>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>150</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2546,7 +3054,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2555,37 +3063,37 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>96</v>
+      </c>
       <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2593,7 +3101,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -2609,58 +3117,48 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>161</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>162</v>
-      </c>
-      <c r="J20" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" t="s">
-        <v>164</v>
-      </c>
-      <c r="L20" t="s">
-        <v>165</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>166</v>
-      </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
@@ -2676,7 +3174,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2685,41 +3183,37 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2727,7 +3221,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
@@ -2743,7 +3237,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2752,44 +3246,50 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
+      <c r="Y22" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2804,7 +3304,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2813,41 +3313,41 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2855,7 +3355,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
@@ -2871,7 +3371,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2880,41 +3380,41 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
         <v>185</v>
       </c>
-      <c r="K24" t="s">
-        <v>186</v>
-      </c>
-      <c r="L24" t="s">
-        <v>187</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>181</v>
-      </c>
       <c r="O24" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2922,7 +3422,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
@@ -2938,7 +3438,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2947,44 +3447,50 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
-      </c>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2999,7 +3505,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3008,30 +3514,34 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
         <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
@@ -3045,7 +3555,9 @@
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3060,7 +3572,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3069,44 +3581,50 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
-      </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3121,7 +3639,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3130,41 +3648,41 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
         <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3172,7 +3690,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
@@ -3188,7 +3706,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3197,41 +3715,41 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="J29" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3239,7 +3757,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -3255,7 +3773,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3264,17 +3782,13 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="J30" t="s">
-        <v>212</v>
-      </c>
-      <c r="K30" t="s">
-        <v>213</v>
-      </c>
-      <c r="L30" t="s">
-        <v>214</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
       <c r="M30" t="n">
         <v>5</v>
       </c>
@@ -3294,7 +3808,7 @@
         <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3305,9 +3819,7 @@
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>214</v>
-      </c>
+      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3322,7 +3834,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3331,37 +3843,33 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J31" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s">
-        <v>221</v>
-      </c>
-      <c r="O31" t="s">
-        <v>71</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3373,7 +3881,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
@@ -3389,7 +3897,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3398,31 +3906,31 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O32" t="s">
         <v>53</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>5</v>
@@ -3440,7 +3948,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
@@ -3456,7 +3964,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3465,33 +3973,33 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
-      </c>
-      <c r="K33" t="s"/>
-      <c r="L33" t="s"/>
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>227</v>
-      </c>
-      <c r="O33" t="s">
-        <v>200</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3502,7 +4010,9 @@
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
-      <c r="Y33" t="s"/>
+      <c r="Y33" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3517,7 +4027,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3526,21 +4036,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="J34" t="s">
-        <v>233</v>
-      </c>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3549,7 +4063,7 @@
         <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -3563,7 +4077,9 @@
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3578,7 +4094,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3587,25 +4103,25 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="O35" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3629,7 +4145,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
@@ -3645,7 +4161,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3654,50 +4170,44 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="J36" t="s">
-        <v>241</v>
-      </c>
-      <c r="K36" t="s">
-        <v>242</v>
-      </c>
-      <c r="L36" t="s">
-        <v>243</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="O36" t="s">
-        <v>188</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
-      <c r="Y36" t="s">
-        <v>243</v>
-      </c>
+      <c r="Y36" t="s"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3712,7 +4222,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3721,41 +4231,41 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="J37" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="K37" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3763,7 +4273,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38">
@@ -3779,7 +4289,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3788,18 +4298,22 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="J38" t="s">
-        <v>252</v>
-      </c>
-      <c r="K38" t="s"/>
-      <c r="L38" t="s"/>
+        <v>265</v>
+      </c>
+      <c r="K38" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s">
+        <v>267</v>
+      </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
@@ -3825,7 +4339,9 @@
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
+      <c r="Y38" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3840,7 +4356,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3849,37 +4365,37 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="J39" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="K39" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
@@ -3891,7 +4407,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40">
@@ -3907,7 +4423,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3916,31 +4432,31 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="J40" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K40" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L40" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
         <v>3</v>
@@ -3950,7 +4466,7 @@
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3958,7 +4474,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
@@ -3974,7 +4490,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -3983,22 +4499,18 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="J41" t="s">
-        <v>266</v>
-      </c>
-      <c r="K41" t="s">
-        <v>267</v>
-      </c>
-      <c r="L41" t="s">
-        <v>268</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
@@ -4007,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
         <v>5</v>
@@ -4016,15 +4528,15 @@
         <v>5</v>
       </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
-      <c r="Y41" t="s">
-        <v>268</v>
-      </c>
+      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4039,7 +4551,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4048,41 +4560,41 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="J42" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="K42" t="s">
+        <v>286</v>
+      </c>
+      <c r="L42" t="s">
+        <v>287</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
         <v>273</v>
       </c>
-      <c r="L42" t="s">
-        <v>274</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3</v>
-      </c>
-      <c r="N42" t="s">
-        <v>275</v>
-      </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4090,7 +4602,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
@@ -4106,7 +4618,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4115,41 +4627,37 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="J43" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="K43" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="L43" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>275</v>
-      </c>
-      <c r="O43" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
         <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4157,7 +4665,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44">
@@ -4173,7 +4681,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4182,37 +4690,33 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="J44" t="s">
-        <v>283</v>
-      </c>
-      <c r="K44" t="s">
-        <v>284</v>
-      </c>
-      <c r="L44" t="s">
-        <v>285</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4223,9 +4727,7 @@
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s">
-        <v>285</v>
-      </c>
+      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4240,7 +4742,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4249,50 +4751,44 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="J45" t="s">
-        <v>289</v>
-      </c>
-      <c r="K45" t="s">
-        <v>290</v>
-      </c>
-      <c r="L45" t="s">
-        <v>291</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="O45" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
-      <c r="Y45" t="s">
-        <v>291</v>
-      </c>
+      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4307,7 +4803,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4316,27 +4812,31 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="J46" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L46" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+      <c r="N46" t="s">
+        <v>300</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
         <v>4</v>
@@ -4346,7 +4846,7 @@
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4354,7 +4854,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47">
@@ -4370,7 +4870,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4379,41 +4879,41 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" t="s">
+        <v>307</v>
+      </c>
+      <c r="K47" t="s">
+        <v>308</v>
+      </c>
+      <c r="L47" t="s">
+        <v>309</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
         <v>300</v>
       </c>
-      <c r="J47" t="s">
-        <v>301</v>
-      </c>
-      <c r="K47" t="s">
-        <v>302</v>
-      </c>
-      <c r="L47" t="s">
-        <v>303</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="s">
-        <v>304</v>
-      </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4421,7 +4921,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48">
@@ -4437,7 +4937,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4446,25 +4946,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="J48" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="O48" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4473,14 +4973,14 @@
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4488,7 +4988,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49">
@@ -4504,7 +5004,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4513,35 +5013,2135 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="J49" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+      <c r="N49" t="s">
+        <v>300</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>317</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>321</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>322</v>
+      </c>
+      <c r="J50" t="s">
+        <v>323</v>
+      </c>
+      <c r="K50" t="s">
+        <v>324</v>
+      </c>
+      <c r="L50" t="s">
+        <v>325</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>326</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>328</v>
+      </c>
+      <c r="J51" t="s">
+        <v>329</v>
+      </c>
+      <c r="K51" t="s">
+        <v>330</v>
+      </c>
+      <c r="L51" t="s">
+        <v>331</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>332</v>
+      </c>
+      <c r="O51" t="s">
+        <v>96</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>333</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>334</v>
+      </c>
+      <c r="J52" t="s">
+        <v>335</v>
+      </c>
+      <c r="K52" t="s">
+        <v>336</v>
+      </c>
+      <c r="L52" t="s">
+        <v>337</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>326</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>338</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>339</v>
+      </c>
+      <c r="J53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K53" t="s">
+        <v>341</v>
+      </c>
+      <c r="L53" t="s">
+        <v>342</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>343</v>
+      </c>
+      <c r="O53" t="s">
+        <v>168</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>345</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>346</v>
+      </c>
+      <c r="J54" t="s">
+        <v>347</v>
+      </c>
+      <c r="K54" t="s">
+        <v>348</v>
+      </c>
+      <c r="L54" t="s">
+        <v>349</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>343</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>350</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>351</v>
+      </c>
+      <c r="J55" t="s">
+        <v>352</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>343</v>
+      </c>
+      <c r="O55" t="s">
+        <v>83</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>353</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>354</v>
+      </c>
+      <c r="J56" t="s">
+        <v>355</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>332</v>
+      </c>
+      <c r="O56" t="s">
+        <v>83</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>356</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>357</v>
+      </c>
+      <c r="J57" t="s">
+        <v>358</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>332</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>359</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>360</v>
+      </c>
+      <c r="J58" t="s">
+        <v>361</v>
+      </c>
+      <c r="K58" t="s">
+        <v>362</v>
+      </c>
+      <c r="L58" t="s">
+        <v>363</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>332</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>364</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>365</v>
+      </c>
+      <c r="J59" t="s">
+        <v>366</v>
+      </c>
+      <c r="K59" t="s">
+        <v>367</v>
+      </c>
+      <c r="L59" t="s">
+        <v>368</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>332</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>370</v>
+      </c>
+      <c r="J60" t="s">
+        <v>371</v>
+      </c>
+      <c r="K60" t="s">
+        <v>372</v>
+      </c>
+      <c r="L60" t="s">
+        <v>373</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>332</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>375</v>
+      </c>
+      <c r="J61" t="s">
+        <v>376</v>
+      </c>
+      <c r="K61" t="s">
+        <v>377</v>
+      </c>
+      <c r="L61" t="s">
+        <v>378</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>379</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>380</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>381</v>
+      </c>
+      <c r="J62" t="s">
+        <v>382</v>
+      </c>
+      <c r="K62" t="s">
+        <v>383</v>
+      </c>
+      <c r="L62" t="s">
+        <v>384</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>379</v>
+      </c>
+      <c r="O62" t="s">
+        <v>83</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>386</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>387</v>
+      </c>
+      <c r="J63" t="s">
+        <v>388</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>379</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>389</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>390</v>
+      </c>
+      <c r="J64" t="s">
+        <v>391</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>379</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>392</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>393</v>
+      </c>
+      <c r="J65" t="s">
+        <v>394</v>
+      </c>
+      <c r="K65" t="s">
+        <v>395</v>
+      </c>
+      <c r="L65" t="s">
+        <v>396</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>379</v>
+      </c>
+      <c r="O65" t="s">
+        <v>96</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>397</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>398</v>
+      </c>
+      <c r="J66" t="s">
+        <v>399</v>
+      </c>
+      <c r="K66" t="s">
+        <v>400</v>
+      </c>
+      <c r="L66" t="s">
+        <v>401</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>379</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>403</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>404</v>
+      </c>
+      <c r="J67" t="s">
+        <v>405</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>406</v>
+      </c>
+      <c r="O67" t="s">
+        <v>168</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>407</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>408</v>
+      </c>
+      <c r="J68" t="s">
+        <v>409</v>
+      </c>
+      <c r="K68" t="s">
+        <v>410</v>
+      </c>
+      <c r="L68" t="s">
+        <v>411</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>406</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>412</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>413</v>
+      </c>
+      <c r="J69" t="s">
+        <v>414</v>
+      </c>
+      <c r="K69" t="s">
+        <v>415</v>
+      </c>
+      <c r="L69" t="s">
+        <v>416</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>406</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>417</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>418</v>
+      </c>
+      <c r="J70" t="s">
+        <v>419</v>
+      </c>
+      <c r="K70" t="s">
+        <v>420</v>
+      </c>
+      <c r="L70" t="s">
+        <v>421</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>422</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>423</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>424</v>
+      </c>
+      <c r="J71" t="s">
+        <v>419</v>
+      </c>
+      <c r="K71" t="s">
+        <v>425</v>
+      </c>
+      <c r="L71" t="s">
+        <v>426</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>422</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>428</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>429</v>
+      </c>
+      <c r="J72" t="s">
+        <v>430</v>
+      </c>
+      <c r="K72" t="s">
+        <v>431</v>
+      </c>
+      <c r="L72" t="s">
+        <v>432</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>406</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>433</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>434</v>
+      </c>
+      <c r="J73" t="s">
+        <v>435</v>
+      </c>
+      <c r="K73" t="s">
+        <v>436</v>
+      </c>
+      <c r="L73" t="s">
+        <v>437</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>438</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>440</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>441</v>
+      </c>
+      <c r="J74" t="s">
+        <v>442</v>
+      </c>
+      <c r="K74" t="s">
+        <v>443</v>
+      </c>
+      <c r="L74" t="s">
+        <v>444</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>445</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>446</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>447</v>
+      </c>
+      <c r="J75" t="s">
+        <v>448</v>
+      </c>
+      <c r="K75" t="s">
+        <v>449</v>
+      </c>
+      <c r="L75" t="s">
+        <v>450</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>451</v>
+      </c>
+      <c r="O75" t="s">
+        <v>168</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>452</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>453</v>
+      </c>
+      <c r="J76" t="s">
+        <v>454</v>
+      </c>
+      <c r="K76" t="s">
+        <v>455</v>
+      </c>
+      <c r="L76" t="s">
+        <v>456</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>458</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>459</v>
+      </c>
+      <c r="J77" t="s">
+        <v>460</v>
+      </c>
+      <c r="K77" t="s">
+        <v>461</v>
+      </c>
+      <c r="L77" t="s">
+        <v>462</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>463</v>
+      </c>
+      <c r="O77" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>465</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>466</v>
+      </c>
+      <c r="J78" t="s">
+        <v>467</v>
+      </c>
+      <c r="K78" t="s">
+        <v>468</v>
+      </c>
+      <c r="L78" t="s">
+        <v>469</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>470</v>
+      </c>
+      <c r="O78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>471</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>472</v>
+      </c>
+      <c r="J79" t="s">
+        <v>473</v>
+      </c>
+      <c r="K79" t="s">
+        <v>474</v>
+      </c>
+      <c r="L79" t="s">
+        <v>475</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>476</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>478</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>479</v>
+      </c>
+      <c r="J80" t="s">
+        <v>480</v>
+      </c>
+      <c r="K80" t="s">
+        <v>481</v>
+      </c>
+      <c r="L80" t="s">
+        <v>482</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>483</v>
+      </c>
+      <c r="O80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5221</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>485</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>486</v>
+      </c>
+      <c r="J81" t="s">
+        <v>487</v>
+      </c>
+      <c r="K81" t="s">
+        <v>488</v>
+      </c>
+      <c r="L81" t="s">
+        <v>489</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
